--- a/数据整理/stocks/港股/01810-小米集团.xlsx
+++ b/数据整理/stocks/港股/01810-小米集团.xlsx
@@ -4057,12 +4057,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/港股/01810-小米集团.xlsx
+++ b/数据整理/stocks/港股/01810-小米集团.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4041,7 +4042,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4052,17 +4053,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4072,13 +4093,2307 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>277.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>20.3525</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513050</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证海外中国互联网50 QDII-ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>397.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.6903</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>123.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9.9328</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009570</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>121.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.8925</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4712</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159605</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证海外中国互联网30（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3366</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.2923</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159792</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>13.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1529</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0382</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9045</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7340</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009571</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>67.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6054</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4471</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4321</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159607</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实中证海外中国互联网30ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4212</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3962</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3660</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3019</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2986</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012124</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博道盛彦混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2483</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013127</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2096</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方中证香港科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1904</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>513890</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上投摩根恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1646</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1495</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>870017</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发资管消费精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>513020</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>96.34</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.12</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>101.59</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>513320</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达恒生港股通新经济ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>97.13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013128</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159751</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>513160</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华恒生港股通中国科技ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>517350</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发中证沪港深科技龙头交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008519</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中金中证沪港深优选消费50指数A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>513230</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>96.95</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159723</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>97.33</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>517660</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>517550</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商中证沪港深消费龙头ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012125</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博道盛彦混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008520</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中金中证沪港深优选消费50指数C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013129</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深消费龙头指数A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>013093</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头指数A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012560</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深科技龙头指数C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012559</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深科技龙头指数A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004321</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>前海开源沪港深强国产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>48.46</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013130</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深消费龙头指数C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013094</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头指数C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>59</v>
+      </c>
+      <c r="D2" t="n">
+        <v>62.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>93</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>87.81</v>
       </c>
     </row>
